--- a/nodes_source_analyses/energy/buildings/buildings_space_heater_collective_heatpump_water_water_ts_electricity.converter.xlsx
+++ b/nodes_source_analyses/energy/buildings/buildings_space_heater_collective_heatpump_water_water_ts_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/buildings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koenvanbemmelen/work/etdataset/nodes_source_analyses/energy/buildings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3667671-5B1E-7840-A4CB-B993E686A8D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8609C339-0B05-AD4A-9041-5F988B3E419C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -45,7 +45,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -56,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="140">
   <si>
     <t>Source</t>
   </si>
@@ -97,9 +102,6 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Land use of plant in NL</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -139,9 +141,6 @@
     <t>Electricity output capacity</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Date published</t>
   </si>
   <si>
@@ -157,21 +156,9 @@
     <t>free_co2_factor</t>
   </si>
   <si>
-    <t>forecasting_error</t>
-  </si>
-  <si>
-    <t>land_use_per_unit</t>
-  </si>
-  <si>
     <t>takes_part_in_ets</t>
   </si>
   <si>
-    <t>part_load_efficiency_penalty</t>
-  </si>
-  <si>
-    <t>part_load_operating_point</t>
-  </si>
-  <si>
     <t>electricity_output_capacity</t>
   </si>
   <si>
@@ -227,9 +214,6 @@
   </si>
   <si>
     <t>Variable operational and maintenance costs for ccs</t>
-  </si>
-  <si>
-    <t>Date retrived</t>
   </si>
   <si>
     <t>MW</t>
@@ -360,25 +344,7 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Maria Tsagkaraki</t>
-  </si>
-  <si>
     <t>Technical</t>
-  </si>
-  <si>
-    <t>hours_prep_nl</t>
-  </si>
-  <si>
-    <t>hours_prod_nl</t>
-  </si>
-  <si>
-    <t>hours_place_nl</t>
-  </si>
-  <si>
-    <t>hours_maint_nl</t>
-  </si>
-  <si>
-    <t>hours_remov_nl</t>
   </si>
   <si>
     <r>
@@ -460,9 +426,6 @@
     </r>
   </si>
   <si>
-    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
-  </si>
-  <si>
     <t>Vesta</t>
   </si>
   <si>
@@ -503,6 +466,134 @@
   </si>
   <si>
     <t>input.electricity</t>
+  </si>
+  <si>
+    <t>Quintel assumption (see https://docs.energytransitionmodel.com/main/cost-wacc)</t>
+  </si>
+  <si>
+    <t>Date retreived</t>
+  </si>
+  <si>
+    <t>Functioneel ontwerp 5.0 Vesta MAIS</t>
+  </si>
+  <si>
+    <t>https://refman.energytransitionmodel.com/publications/2145</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Functioneel Ontwerp Vesta MAIS 4.0 </t>
+  </si>
+  <si>
+    <t>https://refman.energytransitionmodel.com/publications/2109</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Data reference</t>
+  </si>
+  <si>
+    <t>eur/connection</t>
+  </si>
+  <si>
+    <t>Koen van Bemmelen</t>
+  </si>
+  <si>
+    <t>Figure B</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
+  <si>
+    <t>Efficiency bodem-WP voor ruimteverwarming utiliteit</t>
+  </si>
+  <si>
+    <t>Min value</t>
+  </si>
+  <si>
+    <t>Max value</t>
+  </si>
+  <si>
+    <t>SPF collective heat pump utility building</t>
+  </si>
+  <si>
+    <t>Fixed investment costs collective heat pump utility building</t>
+  </si>
+  <si>
+    <t>Attribute (EN)</t>
+  </si>
+  <si>
+    <t>Attribute (NL)</t>
+  </si>
+  <si>
+    <t>Value &lt;100 kW</t>
+  </si>
+  <si>
+    <t>Kosten per aansluiting bodem-WP utiliteit</t>
+  </si>
+  <si>
+    <t>Variable costs collective heat pump utility building</t>
+  </si>
+  <si>
+    <t>Kosten per kW bodem-WP utiliteit</t>
+  </si>
+  <si>
+    <t>Figure A</t>
+  </si>
+  <si>
+    <t>eur/kW</t>
+  </si>
+  <si>
+    <t>Full load hours</t>
+  </si>
+  <si>
+    <t>Vollasturen</t>
+  </si>
+  <si>
+    <t>Afschrijftermijn</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Figure C</t>
+  </si>
+  <si>
+    <t>40% of the investment costs is deprecated over 30 years, the rest over 15 years</t>
+  </si>
+  <si>
+    <t>Note for this node source analysis</t>
+  </si>
+  <si>
+    <t>The notes below (written Oct 23 by Koen van Bemmelen) were taken by accident (confusion with other node)</t>
+  </si>
+  <si>
+    <t>and are incomplete.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">They are currently </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> used in this node source analysis.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -514,19 +605,12 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -736,8 +820,46 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -810,8 +932,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1042,501 +1180,538 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="256">
+  <cellStyleXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="22" xfId="257"/>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="22" xfId="256"/>
   </cellXfs>
-  <cellStyles count="256">
+  <cellStyles count="258">
+    <cellStyle name="Calculation" xfId="257" builtinId="22"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1792,6 +1967,7 @@
     <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8"/>
+    <cellStyle name="Input" xfId="256" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1818,7 +1994,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>2184400</xdr:colOff>
+      <xdr:colOff>2387600</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>109415</xdr:rowOff>
     </xdr:to>
@@ -1853,11 +2029,143 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>89736</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41A8D0EB-AA86-A1BF-D319-9838A7A08577}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20370800" y="9575800"/>
+          <a:ext cx="7772400" cy="8827336"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>2414137</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F1E9D0-3290-7849-96C1-B9F7C51BD01A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26644600" y="1358900"/>
+          <a:ext cx="7468737" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1930400</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{325A5384-F0E6-E74F-EF16-FDE9DAF7EC36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26466800" y="22377400"/>
+          <a:ext cx="6985000" cy="4419600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -1967,6 +2275,10 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2294,27 +2606,29 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="25" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="18" customWidth="1"/>
     <col min="3" max="3" width="55.1640625" style="18" customWidth="1"/>
     <col min="4" max="16384" width="10.6640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+    <row r="1" spans="1:3" s="23" customFormat="1">
+      <c r="A1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
-      <c r="B2" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="25"/>
+      <c r="B2" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1"/>
@@ -2324,28 +2638,28 @@
     <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2360,106 +2674,106 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
-      <c r="B9" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="81"/>
+      <c r="B9" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="76"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="83"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="78"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
-      <c r="B11" s="82" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="84" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1">
+      <c r="B11" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1"/>
-      <c r="B12" s="82"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="85" t="s">
-        <v>64</v>
+      <c r="B13" s="77"/>
+      <c r="C13" s="147" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="83" t="s">
-        <v>65</v>
+      <c r="B14" s="77"/>
+      <c r="C14" s="78" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="83"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="78"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
-      <c r="B16" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="86" t="s">
-        <v>67</v>
+      <c r="B16" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="87" t="s">
-        <v>68</v>
+      <c r="B17" s="77"/>
+      <c r="C17" s="81" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="88" t="s">
-        <v>69</v>
+      <c r="B18" s="77"/>
+      <c r="C18" s="82" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="89" t="s">
-        <v>70</v>
+      <c r="B19" s="77"/>
+      <c r="C19" s="83" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="91" t="s">
-        <v>71</v>
+      <c r="B20" s="84"/>
+      <c r="C20" s="85" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="92" t="s">
-        <v>72</v>
+      <c r="B21" s="84"/>
+      <c r="C21" s="86" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="93" t="s">
-        <v>73</v>
+      <c r="B22" s="84"/>
+      <c r="C22" s="87" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" s="90"/>
-      <c r="C23" s="94" t="s">
-        <v>74</v>
+      <c r="B23" s="84"/>
+      <c r="C23" s="88" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2473,64 +2787,50 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K43"/>
+  <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
-    <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="46.1640625" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="34"/>
+    <col min="1" max="1" width="3.33203125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="46" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="31" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="31" customWidth="1"/>
+    <col min="7" max="7" width="45" style="31" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="46.1640625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="2:11">
-      <c r="B2" s="133" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="136"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-    </row>
-    <row r="4" spans="2:11" ht="31" customHeight="1">
-      <c r="B4" s="139"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-    </row>
-    <row r="5" spans="2:11" ht="17" thickBot="1">
-      <c r="D5" s="32"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="35"/>
+    <row r="2" spans="2:10">
+      <c r="B2" s="123" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="125"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="126"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="128"/>
+    </row>
+    <row r="4" spans="2:10" ht="31" customHeight="1">
+      <c r="B4" s="129"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="131"/>
+    </row>
+    <row r="5" spans="2:10" ht="17" thickBot="1"/>
+    <row r="6" spans="2:10">
+      <c r="B6" s="33"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -2538,14 +2838,14 @@
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
-      <c r="J6" s="36"/>
-    </row>
-    <row r="7" spans="2:11" s="41" customFormat="1" ht="19">
-      <c r="B7" s="95"/>
+      <c r="J6" s="34"/>
+    </row>
+    <row r="7" spans="2:10" s="39" customFormat="1" ht="19">
+      <c r="B7" s="89"/>
       <c r="C7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="90" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -2559,673 +2859,482 @@
       <c r="I7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="102"/>
-    </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="19">
+      <c r="J7" s="96"/>
+    </row>
+    <row r="8" spans="2:10" s="39" customFormat="1" ht="19">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="28"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="42"/>
-    </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
+      <c r="J8" s="40"/>
+    </row>
+    <row r="9" spans="2:10" s="39" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="28"/>
+        <v>79</v>
+      </c>
+      <c r="D9" s="27"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="42"/>
-    </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
+      <c r="J9" s="40"/>
+    </row>
+    <row r="10" spans="2:10" s="39" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="20"/>
-      <c r="C10" s="120" t="s">
-        <v>94</v>
+      <c r="C10" s="112" t="s">
+        <v>81</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="41">
         <f>Notes!E17</f>
         <v>0.73404255319148937</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="42"/>
-    </row>
-    <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="132" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="40"/>
+    </row>
+    <row r="11" spans="2:10" s="39" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="20"/>
-      <c r="C11" s="125" t="s">
-        <v>100</v>
+      <c r="C11" s="117" t="s">
+        <v>87</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="41">
         <f>Notes!E18</f>
         <v>0.26595744680851063</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="42"/>
-    </row>
-    <row r="12" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="40"/>
+    </row>
+    <row r="12" spans="2:10" s="39" customFormat="1" ht="20" thickBot="1">
       <c r="B12" s="20"/>
-      <c r="C12" s="120" t="s">
-        <v>95</v>
+      <c r="C12" s="112" t="s">
+        <v>82</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="41">
         <v>1</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="42"/>
-    </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1">
-      <c r="B13" s="37"/>
-      <c r="C13" s="33" t="s">
-        <v>31</v>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="40"/>
+    </row>
+    <row r="13" spans="2:10" ht="17" thickBot="1">
+      <c r="B13" s="35"/>
+      <c r="C13" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="41">
         <v>0</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="103"/>
-      <c r="K13" s="32"/>
-    </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1">
-      <c r="B14" s="37"/>
-      <c r="C14" s="33" t="s">
-        <v>33</v>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="97"/>
+    </row>
+    <row r="14" spans="2:10" ht="17" thickBot="1">
+      <c r="B14" s="35"/>
+      <c r="C14" s="112" t="s">
+        <v>83</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="42">
+        <v>4380</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="97"/>
+    </row>
+    <row r="15" spans="2:10" ht="17" thickBot="1">
+      <c r="B15" s="35"/>
+      <c r="C15" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="42">
         <v>0</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="31" t="s">
+      <c r="F15" s="32"/>
+      <c r="G15" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="32"/>
+      <c r="I15" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="97"/>
+    </row>
+    <row r="16" spans="2:10" ht="17" thickBot="1">
+      <c r="B16" s="35"/>
+      <c r="C16" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="103"/>
-      <c r="K14" s="32"/>
-    </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1">
-      <c r="B15" s="37"/>
-      <c r="C15" s="120" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="44">
-        <v>4380</v>
-      </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" s="103"/>
-      <c r="K15" s="32"/>
-    </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1">
-      <c r="B16" s="37"/>
-      <c r="C16" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="31">
-        <v>0</v>
-      </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16" s="103"/>
-      <c r="K16" s="32"/>
-    </row>
-    <row r="17" spans="2:11" ht="17" thickBot="1">
-      <c r="B17" s="37"/>
-      <c r="C17" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="31">
-        <v>0</v>
-      </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17" s="103"/>
-      <c r="K17" s="32"/>
-    </row>
-    <row r="18" spans="2:11" ht="17" thickBot="1">
-      <c r="B18" s="37"/>
-      <c r="C18" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="44">
-        <v>0</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" s="103"/>
-    </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1">
-      <c r="B19" s="37"/>
-      <c r="C19" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="43">
+      <c r="E16" s="41">
         <f>'Research data'!G8</f>
         <v>2.25</v>
       </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" s="103"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="37"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="103"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="37"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="103"/>
-    </row>
-    <row r="22" spans="2:11" ht="17" thickBot="1">
-      <c r="B22" s="37"/>
-      <c r="C22" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="98"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="103"/>
-    </row>
-    <row r="23" spans="2:11" ht="17" thickBot="1">
-      <c r="B23" s="37"/>
-      <c r="C23" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="44">
+      <c r="F16" s="32"/>
+      <c r="G16" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="32"/>
+      <c r="I16" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="97"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="35"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="J17" s="97"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="35"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
+      <c r="G18" s="56"/>
+      <c r="J18" s="97"/>
+    </row>
+    <row r="19" spans="2:10" ht="17" thickBot="1">
+      <c r="B19" s="35"/>
+      <c r="C19" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="92"/>
+      <c r="E19" s="93"/>
+      <c r="G19" s="56"/>
+      <c r="J19" s="97"/>
+    </row>
+    <row r="20" spans="2:10" ht="17" thickBot="1">
+      <c r="B20" s="35"/>
+      <c r="C20" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="42">
         <f>'Research data'!G16</f>
         <v>953500</v>
       </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33" t="s">
+      <c r="F20" s="32"/>
+      <c r="G20" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="33"/>
-      <c r="I23" s="128" t="s">
-        <v>105</v>
-      </c>
-      <c r="J23" s="103"/>
-    </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1">
-      <c r="B24" s="37"/>
-      <c r="C24" s="33" t="s">
-        <v>41</v>
+      <c r="H20" s="32"/>
+      <c r="I20" s="119" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="97"/>
+    </row>
+    <row r="21" spans="2:10" ht="17" thickBot="1">
+      <c r="B21" s="35"/>
+      <c r="C21" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="42">
+        <v>0</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="32"/>
+      <c r="I21" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="97"/>
+    </row>
+    <row r="22" spans="2:10" ht="17" thickBot="1">
+      <c r="B22" s="35"/>
+      <c r="C22" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="42">
+        <v>0</v>
+      </c>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="32"/>
+      <c r="I22" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="97"/>
+    </row>
+    <row r="23" spans="2:10" ht="17" thickBot="1">
+      <c r="B23" s="35"/>
+      <c r="C23" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="42">
+        <v>0</v>
+      </c>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="32"/>
+      <c r="I23" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="97"/>
+    </row>
+    <row r="24" spans="2:10" ht="17" thickBot="1">
+      <c r="B24" s="35"/>
+      <c r="C24" s="32" t="s">
+        <v>37</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="44">
-        <v>0</v>
-      </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" s="33"/>
-      <c r="I24" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="J24" s="103"/>
-    </row>
-    <row r="25" spans="2:11" ht="17" thickBot="1">
-      <c r="B25" s="37"/>
-      <c r="C25" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="44">
-        <v>0</v>
-      </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="J25" s="103"/>
-    </row>
-    <row r="26" spans="2:11" ht="17" thickBot="1">
-      <c r="B26" s="37"/>
-      <c r="C26" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="44">
-        <v>0</v>
-      </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="33"/>
-      <c r="I26" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="J26" s="103"/>
-    </row>
-    <row r="27" spans="2:11" ht="17" thickBot="1">
-      <c r="B27" s="37"/>
-      <c r="C27" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="97">
+        <v>44</v>
+      </c>
+      <c r="E24" s="91">
         <f>'Research data'!G17</f>
         <v>67530</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="J27" s="103"/>
-    </row>
-    <row r="28" spans="2:11" ht="17" thickBot="1">
-      <c r="B28" s="37"/>
-      <c r="C28" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="43">
+      <c r="F24" s="32"/>
+      <c r="G24" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="32"/>
+      <c r="I24" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="97"/>
+    </row>
+    <row r="25" spans="2:10" ht="17" thickBot="1">
+      <c r="B25" s="35"/>
+      <c r="C25" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="41">
         <f>'Research data'!G19</f>
         <v>0</v>
       </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="J28" s="103"/>
-    </row>
-    <row r="29" spans="2:11" ht="17" thickBot="1">
-      <c r="B29" s="37"/>
-      <c r="C29" s="33" t="s">
+      <c r="F25" s="32"/>
+      <c r="G25" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="32"/>
+      <c r="I25" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="100">
+      <c r="J25" s="97"/>
+    </row>
+    <row r="26" spans="2:10" ht="17" thickBot="1">
+      <c r="B26" s="35"/>
+      <c r="C26" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="94">
         <v>0</v>
       </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="110" t="s">
-        <v>51</v>
-      </c>
-      <c r="J29" s="103"/>
-    </row>
-    <row r="30" spans="2:11" ht="17" thickBot="1">
-      <c r="B30" s="37"/>
-      <c r="C30" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="19" t="s">
+      <c r="F26" s="32"/>
+      <c r="G26" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="32"/>
+      <c r="I26" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" s="97"/>
+    </row>
+    <row r="27" spans="2:10" ht="17" thickBot="1">
+      <c r="B27" s="35"/>
+      <c r="C27" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E27" s="41">
         <v>0.04</v>
       </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="J30" s="103"/>
-    </row>
-    <row r="31" spans="2:11" ht="17" thickBot="1">
-      <c r="B31" s="37"/>
-      <c r="C31" s="33" t="s">
-        <v>35</v>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="32"/>
+      <c r="I27" s="132" t="s">
+        <v>105</v>
+      </c>
+      <c r="J27" s="97"/>
+    </row>
+    <row r="28" spans="2:10" ht="17" thickBot="1">
+      <c r="B28" s="35"/>
+      <c r="C28" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="42">
+        <v>0</v>
+      </c>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28" s="97"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="35"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="J29" s="97"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="35"/>
+      <c r="C30" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="92"/>
+      <c r="E30" s="95"/>
+      <c r="J30" s="97"/>
+    </row>
+    <row r="31" spans="2:10" ht="17" thickBot="1">
+      <c r="B31" s="35"/>
+      <c r="C31" s="115" t="s">
+        <v>40</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="44">
+        <v>1</v>
+      </c>
+      <c r="E31" s="91">
+        <f>'Research data'!G12</f>
         <v>0</v>
       </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="J31" s="103"/>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="37"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="103"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="32"/>
+      <c r="I31" s="105" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31" s="97"/>
+    </row>
+    <row r="32" spans="2:10" ht="17" thickBot="1">
+      <c r="B32" s="35"/>
+      <c r="C32" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="42">
+        <f>'Research data'!G13</f>
+        <v>15</v>
+      </c>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="32"/>
+      <c r="I32" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32" s="97"/>
     </row>
     <row r="33" spans="2:10" ht="17" thickBot="1">
-      <c r="B33" s="37"/>
-      <c r="C33" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="98"/>
-      <c r="E33" s="101"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="42">
+        <v>0</v>
+      </c>
       <c r="F33" s="32"/>
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="103"/>
-    </row>
-    <row r="34" spans="2:10" ht="17" thickBot="1">
-      <c r="B34" s="37"/>
-      <c r="C34" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="44">
-        <f>'Research data'!G11</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="33"/>
-      <c r="I34" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="J34" s="103"/>
-    </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1">
-      <c r="B35" s="37"/>
-      <c r="C35" s="123" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="97">
-        <f>'Research data'!G12</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="33"/>
-      <c r="I35" s="112" t="s">
-        <v>51</v>
-      </c>
-      <c r="J35" s="103"/>
-    </row>
-    <row r="36" spans="2:10" ht="17" thickBot="1">
-      <c r="B36" s="37"/>
-      <c r="C36" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="44">
-        <f>'Research data'!G13</f>
-        <v>15</v>
-      </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H36" s="33"/>
-      <c r="I36" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="J36" s="103"/>
-    </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1">
-      <c r="B37" s="37"/>
-      <c r="C37" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="44">
-        <v>0</v>
-      </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="121" t="s">
-        <v>51</v>
-      </c>
-      <c r="J37" s="103"/>
-    </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1">
-      <c r="B38" s="37"/>
-      <c r="C38" s="116" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="97">
-        <v>6</v>
-      </c>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="J38" s="103"/>
-    </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1">
-      <c r="B39" s="37"/>
-      <c r="C39" s="116" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="97">
-        <v>0</v>
-      </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="J39" s="103"/>
-    </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1">
-      <c r="B40" s="37"/>
-      <c r="C40" s="116" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="97">
-        <v>41062.5</v>
-      </c>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="J40" s="103"/>
-    </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1">
-      <c r="B41" s="37"/>
-      <c r="C41" s="116" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="97">
-        <v>1125</v>
-      </c>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="J41" s="103"/>
-    </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1">
-      <c r="B42" s="37"/>
-      <c r="C42" s="116" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="97">
-        <v>40</v>
-      </c>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="J42" s="103"/>
-    </row>
-    <row r="43" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B43" s="38"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="40"/>
+      <c r="I33" s="113" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" s="97"/>
+    </row>
+    <row r="34" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3244,243 +3353,242 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="60" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="60" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="60" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="60" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="60" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="60" customWidth="1"/>
-    <col min="8" max="8" width="4" style="60" customWidth="1"/>
-    <col min="9" max="9" width="16" style="60" customWidth="1"/>
-    <col min="10" max="10" width="3" style="61" customWidth="1"/>
-    <col min="11" max="11" width="60" style="60" customWidth="1"/>
-    <col min="12" max="16384" width="10.6640625" style="60"/>
+    <col min="1" max="2" width="3.5" style="56" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="56" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="56" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="56" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="56" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="56" customWidth="1"/>
+    <col min="8" max="8" width="4" style="56" customWidth="1"/>
+    <col min="9" max="9" width="16" style="56" customWidth="1"/>
+    <col min="10" max="10" width="3" style="57" customWidth="1"/>
+    <col min="11" max="11" width="60" style="56" customWidth="1"/>
+    <col min="12" max="16384" width="10.6640625" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
     <row r="2" spans="2:11">
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="63"/>
-    </row>
-    <row r="3" spans="2:11" s="21" customFormat="1">
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="59"/>
+    </row>
+    <row r="3" spans="2:11" s="14" customFormat="1">
       <c r="B3" s="20"/>
-      <c r="C3" s="108" t="s">
-        <v>77</v>
+      <c r="C3" s="102" t="s">
+        <v>70</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="108" t="s">
+      <c r="F3" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="108" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108" t="s">
-        <v>105</v>
-      </c>
-      <c r="J3" s="58"/>
-      <c r="K3" s="108" t="s">
-        <v>85</v>
+      <c r="G3" s="102" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="54"/>
+      <c r="K3" s="102" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="65"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="107"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="101"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="2:11" ht="17" thickBot="1">
-      <c r="B5" s="65"/>
-      <c r="C5" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="59"/>
+      <c r="K5" s="55"/>
     </row>
     <row r="6" spans="2:11" ht="17" thickBot="1">
-      <c r="B6" s="65"/>
-      <c r="C6" s="130" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="126">
+      <c r="B6" s="61"/>
+      <c r="C6" s="120" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="118">
         <f>I6</f>
         <v>0.73404255319148937</v>
       </c>
       <c r="H6" s="10"/>
-      <c r="I6" s="126">
+      <c r="I6" s="118">
         <f>Notes!E17</f>
         <v>0.73404255319148937</v>
       </c>
       <c r="J6" s="10"/>
-      <c r="K6" s="59"/>
+      <c r="K6" s="55"/>
     </row>
     <row r="7" spans="2:11" ht="17" thickBot="1">
-      <c r="B7" s="65"/>
-      <c r="C7" s="130" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="126">
+      <c r="B7" s="61"/>
+      <c r="C7" s="120" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="118">
         <f>I7</f>
         <v>0.26595744680851063</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="126">
+      <c r="I7" s="118">
         <f>Notes!E18</f>
         <v>0.26595744680851063</v>
       </c>
       <c r="J7" s="10"/>
-      <c r="K7" s="59"/>
+      <c r="K7" s="55"/>
     </row>
     <row r="8" spans="2:11" ht="17" thickBot="1">
-      <c r="B8" s="65"/>
-      <c r="C8" s="131" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="126">
+      <c r="B8" s="61"/>
+      <c r="C8" s="121" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="118">
         <f>ROUND(2.25,2)</f>
         <v>2.25</v>
       </c>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="59"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="55"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="65"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="109"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="55"/>
     </row>
     <row r="10" spans="2:11" ht="17" thickBot="1">
-      <c r="B10" s="65"/>
-      <c r="C10" s="29" t="s">
+      <c r="B10" s="61"/>
+      <c r="C10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="30"/>
+      <c r="K10" s="29"/>
     </row>
     <row r="11" spans="2:11" ht="17" thickBot="1">
-      <c r="B11" s="65"/>
-      <c r="C11" s="75" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="122" t="s">
+      <c r="B11" s="61"/>
+      <c r="C11" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="118">
+      <c r="G11" s="110">
         <f>ROUND(0,0)</f>
         <v>0</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="30"/>
+      <c r="K11" s="29"/>
     </row>
     <row r="12" spans="2:11" ht="17" thickBot="1">
-      <c r="B12" s="65"/>
-      <c r="C12" s="75" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="69" t="s">
+      <c r="B12" s="61"/>
+      <c r="C12" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="118">
+      <c r="G12" s="110">
         <f>ROUND(0,0)</f>
         <v>0</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="12"/>
-      <c r="K12" s="30"/>
+      <c r="K12" s="29"/>
     </row>
     <row r="13" spans="2:11" ht="17" thickBot="1">
-      <c r="B13" s="65"/>
-      <c r="C13" s="75" t="s">
+      <c r="B13" s="61"/>
+      <c r="C13" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="69" t="s">
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="118">
+      <c r="G13" s="110">
         <f>ROUND(15,0)</f>
         <v>15</v>
       </c>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="114"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="107"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="65"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="59"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="55"/>
     </row>
     <row r="15" spans="2:11" ht="17" thickBot="1">
-      <c r="B15" s="65"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -3489,101 +3597,101 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="59"/>
+      <c r="K15" s="55"/>
     </row>
     <row r="16" spans="2:11" ht="17" thickBot="1">
-      <c r="B16" s="65"/>
-      <c r="C16" s="104" t="s">
-        <v>81</v>
+      <c r="B16" s="61"/>
+      <c r="C16" s="98" t="s">
+        <v>74</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="104" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="78">
+      <c r="F16" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="73">
         <f>I16</f>
         <v>953500</v>
       </c>
       <c r="H16" s="12"/>
-      <c r="I16" s="126">
+      <c r="I16" s="118">
         <f>Notes!E10</f>
         <v>953500</v>
       </c>
-      <c r="J16" s="71"/>
-      <c r="K16" s="115"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="108"/>
     </row>
     <row r="17" spans="2:11" ht="17" thickBot="1">
-      <c r="B17" s="65"/>
-      <c r="C17" s="111" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="117" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="124">
+      <c r="B17" s="61"/>
+      <c r="C17" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="109" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="116">
         <f>ROUND((G18*G8*1000),2)</f>
         <v>67530</v>
       </c>
       <c r="H17" s="12"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="119"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="111"/>
     </row>
     <row r="18" spans="2:11" ht="17" thickBot="1">
-      <c r="B18" s="65"/>
-      <c r="C18" s="104" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="106" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="124">
+      <c r="B18" s="61"/>
+      <c r="C18" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="100" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="116">
         <v>30.013332999999999</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="119"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="111"/>
     </row>
     <row r="19" spans="2:11" ht="17" thickBot="1">
-      <c r="B19" s="65"/>
-      <c r="C19" s="111" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="78">
+      <c r="B19" s="61"/>
+      <c r="C19" s="104" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="73">
         <v>0</v>
       </c>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="115"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="108"/>
     </row>
     <row r="20" spans="2:11" ht="17" thickBot="1">
-      <c r="B20" s="65"/>
-      <c r="C20" s="104" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="105" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="78">
+      <c r="B20" s="61"/>
+      <c r="C20" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="99" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="73">
         <v>0</v>
       </c>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="30"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3596,112 +3704,288 @@
   <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:K7"/>
+  <dimension ref="B1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E10" sqref="E10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="45" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="45" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" style="45" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="46" customWidth="1"/>
-    <col min="11" max="11" width="66" style="45" customWidth="1"/>
-    <col min="12" max="16384" width="33.1640625" style="45"/>
+    <col min="1" max="1" width="3.33203125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="43" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="43" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="43" customWidth="1"/>
+    <col min="5" max="5" width="33" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="43" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="43" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="44" customWidth="1"/>
+    <col min="11" max="11" width="66" style="43" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
     <row r="2" spans="2:11">
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="48"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="133"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="50"/>
-      <c r="C3" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="134"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="50"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="53"/>
+      <c r="B4" s="48"/>
+      <c r="K4" s="134"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="55"/>
-      <c r="C5" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="K5" s="56" t="s">
-        <v>14</v>
-      </c>
+      <c r="F5" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="135" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="48"/>
+      <c r="K6" s="134"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="C7" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="127">
-        <v>43800</v>
-      </c>
-      <c r="I7" s="127">
-        <v>43831</v>
-      </c>
-      <c r="J7" s="46" t="s">
-        <v>112</v>
-      </c>
+      <c r="B7" s="48"/>
+      <c r="K7" s="134"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="48"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="136" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="136">
+        <v>2019</v>
+      </c>
+      <c r="H8" s="136"/>
+      <c r="I8" s="137">
+        <v>45170</v>
+      </c>
+      <c r="J8" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="138"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="48"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="136" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="136">
+        <v>2021</v>
+      </c>
+      <c r="H9" s="136"/>
+      <c r="I9" s="137">
+        <v>45139</v>
+      </c>
+      <c r="J9" s="139" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="138"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="48"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="136"/>
+      <c r="K10" s="138"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="48"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="138"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="48"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="138"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="48"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="137"/>
+      <c r="J13"/>
+      <c r="K13" s="138"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="48"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="137"/>
+      <c r="J14"/>
+      <c r="K14" s="138"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="48"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="137"/>
+      <c r="J15"/>
+      <c r="K15" s="138"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="48"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="137"/>
+      <c r="J16"/>
+      <c r="K16" s="138"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="48"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="137"/>
+      <c r="J17"/>
+      <c r="K17" s="138"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="48"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="137"/>
+      <c r="J18"/>
+      <c r="K18" s="138"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="48"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="137"/>
+      <c r="J19"/>
+      <c r="K19" s="138"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="48"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="137"/>
+      <c r="J20"/>
+      <c r="K20" s="138"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="48"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="137"/>
+      <c r="J21"/>
+      <c r="K21" s="138"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="48"/>
+      <c r="K22" s="134"/>
+    </row>
+    <row r="23" spans="2:11" ht="17" thickBot="1">
+      <c r="B23" s="140"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="142"/>
+      <c r="K23" s="143"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3714,159 +3998,391 @@
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:K18"/>
+  <dimension ref="B1:O110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="45" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="45" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" style="45" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="46" customWidth="1"/>
-    <col min="11" max="11" width="66" style="45" customWidth="1"/>
-    <col min="12" max="16384" width="33.1640625" style="45"/>
+    <col min="1" max="1" width="3.33203125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="43" customWidth="1"/>
+    <col min="3" max="3" width="32" style="43" customWidth="1"/>
+    <col min="4" max="4" width="50.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.83203125" style="43" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="43" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="44" customWidth="1"/>
+    <col min="11" max="11" width="66" style="43" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1"/>
-    <row r="2" spans="2:11">
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="48"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="50"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="55"/>
-      <c r="C5" s="56" t="s">
+    <row r="1" spans="2:15" ht="17" thickBot="1"/>
+    <row r="2" spans="2:15">
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="46"/>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="48"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="51"/>
+      <c r="C5" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="56"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="C6" s="129" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="C8" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="45">
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="52"/>
+      <c r="O5" s="49" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="C6" s="49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="C8" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="43">
         <v>8500</v>
       </c>
-      <c r="F8" s="45" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="C9" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="45">
+      <c r="F8" s="43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="C9" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="43">
         <v>420</v>
       </c>
-      <c r="F9" s="45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="C10" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="45">
+      <c r="F9" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="C10" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="43">
         <f>E8+E9*'Research data'!G8*1000</f>
         <v>953500</v>
       </c>
-      <c r="F10" s="45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="C13" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="45">
+      <c r="F10" s="43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="C13" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="43">
         <v>3.24</v>
       </c>
-      <c r="F13" s="45" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="C14" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" s="45">
+      <c r="F13" s="43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="C14" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="43">
         <v>3.76</v>
       </c>
-      <c r="F14" s="45" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="C15" s="129" t="s">
-        <v>117</v>
+      <c r="F14" s="43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="C15" s="49" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="132">
+      <c r="C17" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="122">
         <f>1-E18</f>
         <v>0.73404255319148937</v>
       </c>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="132">
+      <c r="C18" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="122">
         <f>1/E14</f>
         <v>0.26595744680851063</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" ht="17" thickBot="1"/>
+    <row r="40" spans="3:6">
+      <c r="C40" s="149"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="151"/>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="C41" s="152"/>
+      <c r="D41" s="153" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="154"/>
+      <c r="F41" s="155"/>
+    </row>
+    <row r="42" spans="3:6">
+      <c r="C42" s="152"/>
+      <c r="D42" s="154" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="154"/>
+      <c r="F42" s="155"/>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="C43" s="152"/>
+      <c r="D43" s="154" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" s="154"/>
+      <c r="F43" s="155"/>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="C44" s="152"/>
+      <c r="D44" s="154" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" s="154"/>
+      <c r="F44" s="155"/>
+    </row>
+    <row r="45" spans="3:6">
+      <c r="C45" s="152"/>
+      <c r="D45" s="154"/>
+      <c r="E45" s="154"/>
+      <c r="F45" s="155"/>
+    </row>
+    <row r="46" spans="3:6" ht="17" thickBot="1">
+      <c r="C46" s="156"/>
+      <c r="D46" s="157"/>
+      <c r="E46" s="157"/>
+      <c r="F46" s="158"/>
+    </row>
+    <row r="52" spans="2:15" ht="17" thickBot="1"/>
+    <row r="53" spans="2:15">
+      <c r="B53" s="45"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" s="144"/>
+      <c r="C54" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="F54" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="G54" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="H54" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="I54" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="K54" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="L54" s="52"/>
+      <c r="M54" s="145"/>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="B55" s="48"/>
+      <c r="C55" s="136" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="F55" s="148">
+        <v>5257</v>
+      </c>
+      <c r="G55" s="148">
+        <v>8761</v>
+      </c>
+      <c r="H55" s="159">
+        <f>AVERAGE(F55:G55)</f>
+        <v>7009</v>
+      </c>
+      <c r="I55" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="J55" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="K55" s="43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15">
+      <c r="B56" s="48"/>
+      <c r="D56" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="E56" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="F56" s="43">
+        <v>1170</v>
+      </c>
+      <c r="G56" s="43">
+        <v>1950</v>
+      </c>
+      <c r="H56" s="159">
+        <f>AVERAGE(F56:G56)</f>
+        <v>1560</v>
+      </c>
+      <c r="I56" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="J56" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="K56" s="43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15">
+      <c r="B57" s="48"/>
+      <c r="D57" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="E57" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="J57" s="43"/>
+    </row>
+    <row r="58" spans="2:15">
+      <c r="B58" s="48"/>
+      <c r="D58" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="H58" s="160">
+        <v>30</v>
+      </c>
+      <c r="I58" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="J58" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="K58" s="43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15">
+      <c r="B59" s="48"/>
+      <c r="D59" s="146"/>
+      <c r="E59" s="146"/>
+      <c r="F59" s="146"/>
+      <c r="G59" s="146"/>
+      <c r="H59" s="146"/>
+      <c r="I59" s="146"/>
+      <c r="J59" s="146"/>
+    </row>
+    <row r="60" spans="2:15">
+      <c r="B60" s="48"/>
+      <c r="D60" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="H60" s="148">
+        <v>3.61</v>
+      </c>
+      <c r="I60" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="J60" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="K60" s="43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15">
+      <c r="B61" s="48"/>
+      <c r="J61" s="43"/>
+    </row>
+    <row r="62" spans="2:15">
+      <c r="B62" s="48"/>
+      <c r="J62" s="43"/>
+      <c r="O62" s="49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15">
+      <c r="B63" s="48"/>
+      <c r="J63" s="43"/>
+      <c r="O63" s="49"/>
+    </row>
+    <row r="110" spans="15:15">
+      <c r="O110" s="49" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/nodes_source_analyses/energy/buildings/buildings_space_heater_collective_heatpump_water_water_ts_electricity.converter.xlsx
+++ b/nodes_source_analyses/energy/buildings/buildings_space_heater_collective_heatpump_water_water_ts_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koenvanbemmelen/work/etdataset/nodes_source_analyses/energy/buildings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/nodes_source_analyses/energy/buildings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8609C339-0B05-AD4A-9041-5F988B3E419C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407C36C8-A9B4-4C47-976F-9ADE6F83BABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="140">
   <si>
     <t>Source</t>
   </si>
@@ -117,15 +117,9 @@
     <t>Organization</t>
   </si>
   <si>
-    <t>Quintel Intelligence</t>
-  </si>
-  <si>
     <t>Definition on the sources</t>
   </si>
   <si>
-    <t>Weighted average cost of capita</t>
-  </si>
-  <si>
     <t>Installation cost</t>
   </si>
   <si>
@@ -196,9 +190,6 @@
   </si>
   <si>
     <t>euro/year</t>
-  </si>
-  <si>
-    <t>quintel/etsource@0277ad226491f5aae44c874b298cbcf694d2f6cb</t>
   </si>
   <si>
     <t>Heat output capacity</t>
@@ -493,9 +484,6 @@
   </si>
   <si>
     <t>eur/connection</t>
-  </si>
-  <si>
-    <t>Koen van Bemmelen</t>
   </si>
   <si>
     <t>Figure B</t>
@@ -595,6 +583,18 @@
       <t xml:space="preserve"> used in this node source analysis.</t>
     </r>
   </si>
+  <si>
+    <t>Mathijs Bijkerk</t>
+  </si>
+  <si>
+    <t>Quintel</t>
+  </si>
+  <si>
+    <t>Weighted average cost of capital</t>
+  </si>
+  <si>
+    <t>Quintel assumption</t>
+  </si>
 </sst>
 </file>
 
@@ -605,12 +605,19 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1198,517 +1205,523 @@
   </borders>
   <cellStyleXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="22" xfId="257"/>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="22" xfId="256"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="22" xfId="257"/>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="22" xfId="256"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="258">
     <cellStyle name="Calculation" xfId="257" builtinId="22"/>
@@ -2277,10 +2290,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2604,177 +2613,201 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="25" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="55.1640625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="18"/>
+    <col min="1" max="1" width="3.5" style="17" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="55.1640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="10.6640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="23" customFormat="1">
-      <c r="A1" s="21"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-    </row>
-    <row r="2" spans="1:3" ht="21">
+    <row r="1" spans="1:4" s="15" customFormat="1">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" ht="21">
       <c r="A2" s="1"/>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="24"/>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="116"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="115" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="117"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="119"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="116"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="117"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="75" t="s">
+      <c r="D11" s="117"/>
+    </row>
+    <row r="12" spans="1:4" ht="17" thickBot="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="76"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="77" t="s">
+      <c r="D12" s="117"/>
+    </row>
+    <row r="13" spans="1:4" ht="17" thickBot="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="D13" s="117"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="120" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="14" t="s">
+      <c r="D14" s="117"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="117"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="55" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="147" t="s">
+      <c r="C16" s="123" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="78" t="s">
+      <c r="D16" s="117"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="124" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="78"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="77" t="s">
+      <c r="D17" s="117"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="D18" s="117"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="126" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="81" t="s">
+      <c r="D19" s="117"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="127" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="82" t="s">
+      <c r="D20" s="117"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="128" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="83" t="s">
+      <c r="D21" s="117"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="129" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="85" t="s">
+      <c r="D22" s="117"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" s="56"/>
+      <c r="C23" s="130" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="86" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="87" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="84"/>
-      <c r="C23" s="88" t="s">
-        <v>67</v>
-      </c>
+      <c r="D23" s="117"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" s="131"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="119"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2787,554 +2820,514 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B2:J34"/>
+  <dimension ref="B2:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="46" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="31" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="31" customWidth="1"/>
-    <col min="7" max="7" width="45" style="31" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="46.1640625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="31"/>
+    <col min="1" max="1" width="3.33203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="62.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="21" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="21" customWidth="1"/>
+    <col min="7" max="7" width="45" style="21" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="46.1640625" style="21" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="21" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="21"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="123" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="125"/>
+      <c r="B2" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="107"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="126"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="110"/>
     </row>
     <row r="4" spans="2:10" ht="31" customHeight="1">
-      <c r="B4" s="129"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="131"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="113"/>
     </row>
     <row r="5" spans="2:10" ht="17" thickBot="1"/>
     <row r="6" spans="2:10">
-      <c r="B6" s="33"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="34"/>
-    </row>
-    <row r="7" spans="2:10" s="39" customFormat="1" ht="19">
-      <c r="B7" s="89"/>
-      <c r="C7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="90" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="24"/>
+    </row>
+    <row r="7" spans="2:10" s="29" customFormat="1" ht="19">
+      <c r="B7" s="57"/>
+      <c r="C7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="96"/>
-    </row>
-    <row r="8" spans="2:10" s="39" customFormat="1" ht="19">
-      <c r="B8" s="20"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="40"/>
-    </row>
-    <row r="9" spans="2:10" s="39" customFormat="1" ht="20" thickBot="1">
-      <c r="B9" s="20"/>
-      <c r="C9" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="40"/>
-    </row>
-    <row r="10" spans="2:10" s="39" customFormat="1" ht="20" thickBot="1">
-      <c r="B10" s="20"/>
-      <c r="C10" s="112" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="17" t="s">
+      <c r="J7" s="64"/>
+    </row>
+    <row r="8" spans="2:10" s="29" customFormat="1" ht="19">
+      <c r="B8" s="12"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" spans="2:10" s="29" customFormat="1" ht="20" thickBot="1">
+      <c r="B9" s="12"/>
+      <c r="C9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" spans="2:10" s="29" customFormat="1" ht="20" thickBot="1">
+      <c r="B10" s="12"/>
+      <c r="C10" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="31">
         <f>Notes!E17</f>
         <v>0.73404255319148937</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="132" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10" s="40"/>
-    </row>
-    <row r="11" spans="2:10" s="39" customFormat="1" ht="20" thickBot="1">
-      <c r="B11" s="20"/>
-      <c r="C11" s="117" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="17" t="s">
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" spans="2:10" s="29" customFormat="1" ht="20" thickBot="1">
+      <c r="B11" s="12"/>
+      <c r="C11" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="31">
         <f>Notes!E18</f>
         <v>0.26595744680851063</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="30" t="s">
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="30"/>
+    </row>
+    <row r="12" spans="2:10" s="29" customFormat="1" ht="20" thickBot="1">
+      <c r="B12" s="12"/>
+      <c r="C12" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="31">
+        <v>1</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" spans="2:10" ht="17" thickBot="1">
+      <c r="B13" s="25"/>
+      <c r="C13" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="31">
+        <v>0</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="65"/>
+    </row>
+    <row r="14" spans="2:10" ht="17" thickBot="1">
+      <c r="B14" s="25"/>
+      <c r="C14" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="32">
+        <v>4380</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="65"/>
+    </row>
+    <row r="15" spans="2:10" ht="17" thickBot="1">
+      <c r="B15" s="25"/>
+      <c r="C15" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="32">
+        <v>0</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="65"/>
+    </row>
+    <row r="16" spans="2:10" ht="17" thickBot="1">
+      <c r="B16" s="25"/>
+      <c r="C16" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="169">
+        <f>'Research data'!E8</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="170" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" s="65"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="25"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="61"/>
+      <c r="G17" s="45"/>
+      <c r="J17" s="65"/>
+    </row>
+    <row r="18" spans="2:10" ht="17" thickBot="1">
+      <c r="B18" s="25"/>
+      <c r="C18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61"/>
+      <c r="G18" s="45"/>
+      <c r="J18" s="65"/>
+    </row>
+    <row r="19" spans="2:10" ht="17" thickBot="1">
+      <c r="B19" s="25"/>
+      <c r="C19" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="32">
+        <f>'Research data'!E16</f>
+        <v>13120</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="65"/>
+    </row>
+    <row r="20" spans="2:10" ht="17" thickBot="1">
+      <c r="B20" s="25"/>
+      <c r="C20" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="32">
+        <v>0</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="65"/>
+    </row>
+    <row r="21" spans="2:10" ht="17" thickBot="1">
+      <c r="B21" s="25"/>
+      <c r="C21" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="32">
+        <v>0</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="65"/>
+    </row>
+    <row r="22" spans="2:10" ht="17" thickBot="1">
+      <c r="B22" s="25"/>
+      <c r="C22" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="32">
+        <v>0</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="65"/>
+    </row>
+    <row r="23" spans="2:10" ht="17" thickBot="1">
+      <c r="B23" s="25"/>
+      <c r="C23" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="59">
+        <f>'Research data'!E17</f>
+        <v>330.15</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="40"/>
-    </row>
-    <row r="12" spans="2:10" s="39" customFormat="1" ht="20" thickBot="1">
-      <c r="B12" s="20"/>
-      <c r="C12" s="112" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="17" t="s">
+      <c r="H23" s="22"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="65"/>
+    </row>
+    <row r="24" spans="2:10" ht="17" thickBot="1">
+      <c r="B24" s="25"/>
+      <c r="C24" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="31">
+        <f>'Research data'!E19</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="65"/>
+    </row>
+    <row r="25" spans="2:10" ht="17" thickBot="1">
+      <c r="B25" s="25"/>
+      <c r="C25" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="62">
+        <v>0</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="65"/>
+    </row>
+    <row r="26" spans="2:10" ht="17" thickBot="1">
+      <c r="B26" s="25"/>
+      <c r="C26" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="31">
+        <v>0.04</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="133" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="J26" s="65"/>
+    </row>
+    <row r="27" spans="2:10" ht="17" thickBot="1">
+      <c r="B27" s="25"/>
+      <c r="C27" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="32">
+        <v>0</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="65"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="25"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="J28" s="65"/>
+    </row>
+    <row r="29" spans="2:10" ht="17" thickBot="1">
+      <c r="B29" s="25"/>
+      <c r="C29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="60"/>
+      <c r="E29" s="63"/>
+      <c r="J29" s="65"/>
+    </row>
+    <row r="30" spans="2:10" ht="17" thickBot="1">
+      <c r="B30" s="25"/>
+      <c r="C30" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="32">
+        <f>'Research data'!E12</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="65"/>
+    </row>
+    <row r="31" spans="2:10" ht="17" thickBot="1">
+      <c r="B31" s="25"/>
+      <c r="C31" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="32">
+        <f>'Research data'!E13</f>
+        <v>15</v>
+      </c>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="65"/>
+    </row>
+    <row r="32" spans="2:10" ht="17" thickBot="1">
+      <c r="B32" s="25"/>
+      <c r="C32" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="41">
-        <v>1</v>
-      </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="40"/>
-    </row>
-    <row r="13" spans="2:10" ht="17" thickBot="1">
-      <c r="B13" s="35"/>
-      <c r="C13" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="41">
+      <c r="E32" s="32">
         <v>0</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="97"/>
-    </row>
-    <row r="14" spans="2:10" ht="17" thickBot="1">
-      <c r="B14" s="35"/>
-      <c r="C14" s="112" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="42">
-        <v>4380</v>
-      </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="97"/>
-    </row>
-    <row r="15" spans="2:10" ht="17" thickBot="1">
-      <c r="B15" s="35"/>
-      <c r="C15" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="42">
-        <v>0</v>
-      </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="32"/>
-      <c r="I15" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" s="97"/>
-    </row>
-    <row r="16" spans="2:10" ht="17" thickBot="1">
-      <c r="B16" s="35"/>
-      <c r="C16" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="41">
-        <f>'Research data'!G8</f>
-        <v>2.25</v>
-      </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="97"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="35"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="J17" s="97"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="35"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="93"/>
-      <c r="G18" s="56"/>
-      <c r="J18" s="97"/>
-    </row>
-    <row r="19" spans="2:10" ht="17" thickBot="1">
-      <c r="B19" s="35"/>
-      <c r="C19" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="92"/>
-      <c r="E19" s="93"/>
-      <c r="G19" s="56"/>
-      <c r="J19" s="97"/>
-    </row>
-    <row r="20" spans="2:10" ht="17" thickBot="1">
-      <c r="B20" s="35"/>
-      <c r="C20" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="42">
-        <f>'Research data'!G16</f>
-        <v>953500</v>
-      </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="119" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" s="97"/>
-    </row>
-    <row r="21" spans="2:10" ht="17" thickBot="1">
-      <c r="B21" s="35"/>
-      <c r="C21" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="42">
-        <v>0</v>
-      </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="32"/>
-      <c r="I21" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="97"/>
-    </row>
-    <row r="22" spans="2:10" ht="17" thickBot="1">
-      <c r="B22" s="35"/>
-      <c r="C22" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="42">
-        <v>0</v>
-      </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="32"/>
-      <c r="I22" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="J22" s="97"/>
-    </row>
-    <row r="23" spans="2:10" ht="17" thickBot="1">
-      <c r="B23" s="35"/>
-      <c r="C23" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="42">
-        <v>0</v>
-      </c>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="32"/>
-      <c r="I23" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="J23" s="97"/>
-    </row>
-    <row r="24" spans="2:10" ht="17" thickBot="1">
-      <c r="B24" s="35"/>
-      <c r="C24" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="91">
-        <f>'Research data'!G17</f>
-        <v>67530</v>
-      </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="H24" s="32"/>
-      <c r="I24" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="J24" s="97"/>
-    </row>
-    <row r="25" spans="2:10" ht="17" thickBot="1">
-      <c r="B25" s="35"/>
-      <c r="C25" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="41">
-        <f>'Research data'!G19</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="32"/>
-      <c r="I25" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="J25" s="97"/>
-    </row>
-    <row r="26" spans="2:10" ht="17" thickBot="1">
-      <c r="B26" s="35"/>
-      <c r="C26" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="94">
-        <v>0</v>
-      </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" s="32"/>
-      <c r="I26" s="103" t="s">
-        <v>45</v>
-      </c>
-      <c r="J26" s="97"/>
-    </row>
-    <row r="27" spans="2:10" ht="17" thickBot="1">
-      <c r="B27" s="35"/>
-      <c r="C27" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="41">
-        <v>0.04</v>
-      </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="32"/>
-      <c r="I27" s="132" t="s">
-        <v>105</v>
-      </c>
-      <c r="J27" s="97"/>
-    </row>
-    <row r="28" spans="2:10" ht="17" thickBot="1">
-      <c r="B28" s="35"/>
-      <c r="C28" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="42">
-        <v>0</v>
-      </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="J28" s="97"/>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="35"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="J29" s="97"/>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="35"/>
-      <c r="C30" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="92"/>
-      <c r="E30" s="95"/>
-      <c r="J30" s="97"/>
-    </row>
-    <row r="31" spans="2:10" ht="17" thickBot="1">
-      <c r="B31" s="35"/>
-      <c r="C31" s="115" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="91">
-        <f>'Research data'!G12</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="32"/>
-      <c r="I31" s="105" t="s">
-        <v>45</v>
-      </c>
-      <c r="J31" s="97"/>
-    </row>
-    <row r="32" spans="2:10" ht="17" thickBot="1">
-      <c r="B32" s="35"/>
-      <c r="C32" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="42">
-        <f>'Research data'!G13</f>
-        <v>15</v>
-      </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="32"/>
-      <c r="I32" s="106" t="s">
-        <v>45</v>
-      </c>
-      <c r="J32" s="97"/>
-    </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1">
-      <c r="B33" s="35"/>
-      <c r="C33" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="42">
-        <v>0</v>
-      </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="113" t="s">
-        <v>45</v>
-      </c>
-      <c r="J33" s="97"/>
-    </row>
-    <row r="34" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B34" s="36"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="38"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="65"/>
+    </row>
+    <row r="33" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3350,348 +3343,320 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:K20"/>
+  <dimension ref="B1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="56" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="56" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="56" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="56" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="56" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="56" customWidth="1"/>
-    <col min="8" max="8" width="4" style="56" customWidth="1"/>
-    <col min="9" max="9" width="16" style="56" customWidth="1"/>
-    <col min="10" max="10" width="3" style="57" customWidth="1"/>
-    <col min="11" max="11" width="60" style="56" customWidth="1"/>
-    <col min="12" max="16384" width="10.6640625" style="56"/>
+    <col min="1" max="2" width="3.5" style="45" customWidth="1"/>
+    <col min="3" max="3" width="42.1640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="45" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="4" style="45" customWidth="1"/>
+    <col min="7" max="7" width="16" style="45" customWidth="1"/>
+    <col min="8" max="8" width="3" style="46" customWidth="1"/>
+    <col min="9" max="9" width="60" style="45" customWidth="1"/>
+    <col min="10" max="16384" width="10.6640625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1"/>
-    <row r="2" spans="2:11">
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="59"/>
-    </row>
-    <row r="3" spans="2:11" s="14" customFormat="1">
-      <c r="B3" s="20"/>
-      <c r="C3" s="102" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="102" t="s">
+    <row r="1" spans="2:9" ht="17" thickBot="1"/>
+    <row r="2" spans="2:9">
+      <c r="B2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="134"/>
+    </row>
+    <row r="3" spans="2:9" s="6" customFormat="1">
+      <c r="B3" s="12"/>
+      <c r="C3" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="102" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="102" t="s">
+      <c r="E3" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="44"/>
+      <c r="I3" s="135" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="50"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="139"/>
+    </row>
+    <row r="5" spans="2:9" ht="17" thickBot="1">
+      <c r="B5" s="50"/>
+      <c r="C5" s="140" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="140"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="142"/>
+    </row>
+    <row r="6" spans="2:9" ht="17" thickBot="1">
+      <c r="B6" s="50"/>
+      <c r="C6" s="143" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="2:11" ht="17" thickBot="1">
-      <c r="B5" s="61"/>
-      <c r="C5" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="55"/>
-    </row>
-    <row r="6" spans="2:11" ht="17" thickBot="1">
-      <c r="B6" s="61"/>
-      <c r="C6" s="120" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="118">
-        <f>I6</f>
+      <c r="D6" s="140"/>
+      <c r="E6" s="75">
+        <f>G6</f>
         <v>0.73404255319148937</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="118">
+      <c r="F6" s="141"/>
+      <c r="G6" s="75">
         <f>Notes!E17</f>
         <v>0.73404255319148937</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="55"/>
-    </row>
-    <row r="7" spans="2:11" ht="17" thickBot="1">
-      <c r="B7" s="61"/>
-      <c r="C7" s="120" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="118">
-        <f>I7</f>
+      <c r="H6" s="141"/>
+      <c r="I6" s="142"/>
+    </row>
+    <row r="7" spans="2:9" ht="17" thickBot="1">
+      <c r="B7" s="50"/>
+      <c r="C7" s="143" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="140"/>
+      <c r="E7" s="75">
+        <f>G7</f>
         <v>0.26595744680851063</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="118">
+      <c r="F7" s="141"/>
+      <c r="G7" s="75">
         <f>Notes!E18</f>
         <v>0.26595744680851063</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="55"/>
-    </row>
-    <row r="8" spans="2:11" ht="17" thickBot="1">
-      <c r="B8" s="61"/>
-      <c r="C8" s="121" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="118">
-        <f>ROUND(2.25,2)</f>
-        <v>2.25</v>
-      </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="55"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="61"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="55"/>
-    </row>
-    <row r="10" spans="2:11" ht="17" thickBot="1">
-      <c r="B10" s="61"/>
-      <c r="C10" s="28" t="s">
+      <c r="H7" s="141"/>
+      <c r="I7" s="142"/>
+    </row>
+    <row r="8" spans="2:9" ht="17" thickBot="1">
+      <c r="B8" s="50"/>
+      <c r="C8" s="144" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="145" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="75">
+        <f>0.011</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="142"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="50"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="142"/>
+    </row>
+    <row r="10" spans="2:9" ht="17" thickBot="1">
+      <c r="B10" s="50"/>
+      <c r="C10" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="29"/>
-    </row>
-    <row r="11" spans="2:11" ht="17" thickBot="1">
-      <c r="B11" s="61"/>
-      <c r="C11" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="114" t="s">
+      <c r="D10" s="140"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="152"/>
+    </row>
+    <row r="11" spans="2:9" ht="17" thickBot="1">
+      <c r="B11" s="50"/>
+      <c r="C11" s="153" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="110">
+      <c r="E11" s="69">
         <f>ROUND(0,0)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="29"/>
-    </row>
-    <row r="12" spans="2:11" ht="17" thickBot="1">
-      <c r="B12" s="61"/>
-      <c r="C12" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="65" t="s">
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="152"/>
+    </row>
+    <row r="12" spans="2:9" ht="17" thickBot="1">
+      <c r="B12" s="50"/>
+      <c r="C12" s="153" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="110">
+      <c r="E12" s="69">
         <f>ROUND(0,0)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="29"/>
-    </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1">
-      <c r="B13" s="61"/>
-      <c r="C13" s="70" t="s">
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="152"/>
+    </row>
+    <row r="13" spans="2:9" ht="17" thickBot="1">
+      <c r="B13" s="50"/>
+      <c r="C13" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="65" t="s">
+      <c r="D13" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="110">
+      <c r="E13" s="69">
         <f>ROUND(15,0)</f>
         <v>15</v>
       </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="107"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="61"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="55"/>
-    </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1">
-      <c r="B15" s="61"/>
-      <c r="C15" s="13" t="s">
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="156"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="50"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="155"/>
+      <c r="I14" s="142"/>
+    </row>
+    <row r="15" spans="2:9" ht="17" thickBot="1">
+      <c r="B15" s="50"/>
+      <c r="C15" s="157" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="157"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="142"/>
+    </row>
+    <row r="16" spans="2:9" ht="17" thickBot="1">
+      <c r="B16" s="50"/>
+      <c r="C16" s="158" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="158" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="51">
+        <f>G16</f>
+        <v>13120</v>
+      </c>
+      <c r="F16" s="151"/>
+      <c r="G16" s="75">
+        <f>Notes!E10</f>
+        <v>13120</v>
+      </c>
+      <c r="H16" s="149"/>
+      <c r="I16" s="159"/>
+    </row>
+    <row r="17" spans="2:9" ht="17" thickBot="1">
+      <c r="B17" s="50"/>
+      <c r="C17" s="160" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="161" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="73">
+        <f>ROUND((E18*E8*1000),2)</f>
+        <v>330.15</v>
+      </c>
+      <c r="F17" s="151"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="162"/>
+    </row>
+    <row r="18" spans="2:9" ht="17" thickBot="1">
+      <c r="B18" s="50"/>
+      <c r="C18" s="158" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="55"/>
-    </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1">
-      <c r="B16" s="61"/>
-      <c r="C16" s="98" t="s">
+      <c r="D18" s="163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="73">
+        <v>30.013332999999999</v>
+      </c>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="162"/>
+    </row>
+    <row r="19" spans="2:9" ht="17" thickBot="1">
+      <c r="B19" s="50"/>
+      <c r="C19" s="160" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="73">
-        <f>I16</f>
-        <v>953500</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="118">
-        <f>Notes!E10</f>
-        <v>953500</v>
-      </c>
-      <c r="J16" s="67"/>
-      <c r="K16" s="108"/>
-    </row>
-    <row r="17" spans="2:11" ht="17" thickBot="1">
-      <c r="B17" s="61"/>
-      <c r="C17" s="104" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="109" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="116">
-        <f>ROUND((G18*G8*1000),2)</f>
-        <v>67530</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="111"/>
-    </row>
-    <row r="18" spans="2:11" ht="17" thickBot="1">
-      <c r="B18" s="61"/>
-      <c r="C18" s="98" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="100" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="116">
-        <v>30.013332999999999</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="111"/>
-    </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1">
-      <c r="B19" s="61"/>
-      <c r="C19" s="104" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="73">
+      <c r="D19" s="145" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="51">
         <v>0</v>
       </c>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="108"/>
-    </row>
-    <row r="20" spans="2:11" ht="17" thickBot="1">
-      <c r="B20" s="61"/>
-      <c r="C20" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="99" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="73">
+      <c r="F19" s="149"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="159"/>
+    </row>
+    <row r="20" spans="2:9" ht="17" thickBot="1">
+      <c r="B20" s="50"/>
+      <c r="C20" s="158" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="164" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="51">
         <v>0</v>
       </c>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="29"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="152"/>
+    </row>
+    <row r="21" spans="2:9" ht="17" thickBot="1">
+      <c r="B21" s="165"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="167"/>
+      <c r="I21" s="168"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3712,280 +3677,280 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="43" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="43" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="43" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="43" customWidth="1"/>
-    <col min="5" max="5" width="33" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="43" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" style="43" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="44" customWidth="1"/>
-    <col min="11" max="11" width="66" style="43" customWidth="1"/>
-    <col min="12" max="16384" width="33.1640625" style="43"/>
+    <col min="1" max="1" width="3.33203125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="33" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="33" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="33" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="33" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="34" customWidth="1"/>
+    <col min="11" max="11" width="66" style="33" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
     <row r="2" spans="2:11">
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="133"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="79"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="48"/>
-      <c r="C3" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="134"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="48"/>
-      <c r="K4" s="134"/>
+      <c r="B4" s="38"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="51"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="I5" s="52" t="s">
+      <c r="G5" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="38"/>
+      <c r="K6" s="80"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="38"/>
+      <c r="K7" s="80"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="38"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="K5" s="135" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="48"/>
-      <c r="K6" s="134"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="48"/>
-      <c r="K7" s="134"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="48"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="136" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="136">
+      <c r="F8" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="82">
         <v>2019</v>
       </c>
-      <c r="H8" s="136"/>
-      <c r="I8" s="137">
+      <c r="H8" s="82"/>
+      <c r="I8" s="83">
         <v>45170</v>
       </c>
       <c r="J8" t="s">
-        <v>110</v>
-      </c>
-      <c r="K8" s="138"/>
+        <v>107</v>
+      </c>
+      <c r="K8" s="84"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="48"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="136" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" s="136">
+      <c r="B9" s="38"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="82">
         <v>2021</v>
       </c>
-      <c r="H9" s="136"/>
-      <c r="I9" s="137">
+      <c r="H9" s="82"/>
+      <c r="I9" s="83">
         <v>45139</v>
       </c>
-      <c r="J9" s="139" t="s">
-        <v>108</v>
-      </c>
-      <c r="K9" s="138"/>
+      <c r="J9" s="85" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="84"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="48"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="136"/>
-      <c r="K10" s="138"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="K10" s="84"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="48"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="138"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="84"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="48"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="139"/>
-      <c r="K12" s="138"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="84"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="48"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="137"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
       <c r="J13"/>
-      <c r="K13" s="138"/>
+      <c r="K13" s="84"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="48"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="137"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="83"/>
       <c r="J14"/>
-      <c r="K14" s="138"/>
+      <c r="K14" s="84"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="48"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="137"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="83"/>
       <c r="J15"/>
-      <c r="K15" s="138"/>
+      <c r="K15" s="84"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="48"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="137"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="83"/>
       <c r="J16"/>
-      <c r="K16" s="138"/>
+      <c r="K16" s="84"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="48"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="137"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="83"/>
       <c r="J17"/>
-      <c r="K17" s="138"/>
+      <c r="K17" s="84"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="48"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="137"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="83"/>
       <c r="J18"/>
-      <c r="K18" s="138"/>
+      <c r="K18" s="84"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="48"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="137"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="83"/>
       <c r="J19"/>
-      <c r="K19" s="138"/>
+      <c r="K19" s="84"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="48"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="137"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="83"/>
       <c r="J20"/>
-      <c r="K20" s="138"/>
+      <c r="K20" s="84"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="48"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="137"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="83"/>
       <c r="J21"/>
-      <c r="K21" s="138"/>
+      <c r="K21" s="84"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="48"/>
-      <c r="K22" s="134"/>
+      <c r="B22" s="38"/>
+      <c r="K22" s="80"/>
     </row>
     <row r="23" spans="2:11" ht="17" thickBot="1">
-      <c r="B23" s="140"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="143"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="89"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4000,389 +3965,383 @@
   </sheetPr>
   <dimension ref="B1:O110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="43" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="43" customWidth="1"/>
-    <col min="3" max="3" width="32" style="43" customWidth="1"/>
-    <col min="4" max="4" width="50.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.1640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.83203125" style="43" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" style="43" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="44" customWidth="1"/>
-    <col min="11" max="11" width="66" style="43" customWidth="1"/>
-    <col min="12" max="16384" width="33.1640625" style="43"/>
+    <col min="1" max="1" width="3.33203125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="33" customWidth="1"/>
+    <col min="3" max="3" width="32" style="33" customWidth="1"/>
+    <col min="4" max="4" width="50.6640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.83203125" style="33" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="33" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="34" customWidth="1"/>
+    <col min="11" max="11" width="66" style="33" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="17" thickBot="1"/>
     <row r="2" spans="2:15">
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="46"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="48"/>
+      <c r="B4" s="38"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="51"/>
-      <c r="C5" s="52" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="52"/>
-      <c r="O5" s="49" t="s">
-        <v>128</v>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="42"/>
+      <c r="O5" s="39" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="2:15">
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="C8" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="33">
+        <v>8500</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="C9" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="33">
+        <v>420</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="C10" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="33">
+        <f>E8+E9*'Research data'!E8*1000</f>
+        <v>13120</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="C13" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="33">
+        <v>3.24</v>
+      </c>
+      <c r="F13" s="33" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
-      <c r="C8" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="43">
-        <v>8500</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="C9" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="43">
-        <v>420</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15">
-      <c r="C10" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="43">
-        <f>E8+E9*'Research data'!G8*1000</f>
-        <v>953500</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="C13" s="43" t="s">
+    <row r="14" spans="2:15">
+      <c r="C14" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="33">
+        <v>3.76</v>
+      </c>
+      <c r="F14" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="43">
-        <v>3.24</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="C14" s="43" t="s">
+    </row>
+    <row r="15" spans="2:15">
+      <c r="C15" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="43">
-        <v>3.76</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15">
-      <c r="C15" s="49" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="122">
+      <c r="C17" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="77">
         <f>1-E18</f>
         <v>0.73404255319148937</v>
       </c>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="122">
+      <c r="C18" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="77">
         <f>1/E14</f>
         <v>0.26595744680851063</v>
       </c>
     </row>
     <row r="39" spans="3:6" ht="17" thickBot="1"/>
     <row r="40" spans="3:6">
-      <c r="C40" s="149"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="151"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="95"/>
     </row>
     <row r="41" spans="3:6">
-      <c r="C41" s="152"/>
-      <c r="D41" s="153" t="s">
-        <v>136</v>
-      </c>
-      <c r="E41" s="154"/>
-      <c r="F41" s="155"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="98"/>
+      <c r="F41" s="99"/>
     </row>
     <row r="42" spans="3:6">
-      <c r="C42" s="152"/>
-      <c r="D42" s="154" t="s">
-        <v>137</v>
-      </c>
-      <c r="E42" s="154"/>
-      <c r="F42" s="155"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="98" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" s="98"/>
+      <c r="F42" s="99"/>
     </row>
     <row r="43" spans="3:6">
-      <c r="C43" s="152"/>
-      <c r="D43" s="154" t="s">
-        <v>138</v>
-      </c>
-      <c r="E43" s="154"/>
-      <c r="F43" s="155"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="98"/>
+      <c r="F43" s="99"/>
     </row>
     <row r="44" spans="3:6">
-      <c r="C44" s="152"/>
-      <c r="D44" s="154" t="s">
-        <v>139</v>
-      </c>
-      <c r="E44" s="154"/>
-      <c r="F44" s="155"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="98" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="98"/>
+      <c r="F44" s="99"/>
     </row>
     <row r="45" spans="3:6">
-      <c r="C45" s="152"/>
-      <c r="D45" s="154"/>
-      <c r="E45" s="154"/>
-      <c r="F45" s="155"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="99"/>
     </row>
     <row r="46" spans="3:6" ht="17" thickBot="1">
-      <c r="C46" s="156"/>
-      <c r="D46" s="157"/>
-      <c r="E46" s="157"/>
-      <c r="F46" s="158"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="102"/>
     </row>
     <row r="52" spans="2:15" ht="17" thickBot="1"/>
     <row r="53" spans="2:15">
-      <c r="B53" s="45"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="46"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
     </row>
     <row r="54" spans="2:15">
-      <c r="B54" s="144"/>
-      <c r="C54" s="52" t="s">
+      <c r="B54" s="90"/>
+      <c r="C54" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D54" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="E54" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="F54" s="52" t="s">
+      <c r="D54" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="G54" s="52" t="s">
+      <c r="E54" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="H54" s="52" t="s">
+      <c r="F54" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="G54" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="H54" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I54" s="52" t="s">
+      <c r="I54" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="J54" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="K54" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="L54" s="52"/>
-      <c r="M54" s="145"/>
+      <c r="J54" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="K54" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="L54" s="42"/>
+      <c r="M54" s="91"/>
     </row>
     <row r="55" spans="2:15">
-      <c r="B55" s="48"/>
-      <c r="C55" s="136" t="s">
-        <v>107</v>
-      </c>
-      <c r="D55" s="43" t="s">
+      <c r="B55" s="38"/>
+      <c r="C55" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="E55" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="F55" s="148">
+      <c r="F55" s="92">
         <v>5257</v>
       </c>
-      <c r="G55" s="148">
+      <c r="G55" s="92">
         <v>8761</v>
       </c>
-      <c r="H55" s="159">
+      <c r="H55" s="103">
         <f>AVERAGE(F55:G55)</f>
         <v>7009</v>
       </c>
-      <c r="I55" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="J55" s="43" t="s">
+      <c r="I55" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="J55" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="K55" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="K55" s="43" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="56" spans="2:15">
-      <c r="B56" s="48"/>
-      <c r="D56" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="E56" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="F56" s="43">
+      <c r="B56" s="38"/>
+      <c r="D56" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56" s="33">
         <v>1170</v>
       </c>
-      <c r="G56" s="43">
+      <c r="G56" s="33">
         <v>1950</v>
       </c>
-      <c r="H56" s="159">
+      <c r="H56" s="103">
         <f>AVERAGE(F56:G56)</f>
         <v>1560</v>
       </c>
-      <c r="I56" s="43" t="s">
+      <c r="I56" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="J56" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="K56" s="33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15">
+      <c r="B57" s="38"/>
+      <c r="D57" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="J57" s="33"/>
+    </row>
+    <row r="58" spans="2:15">
+      <c r="B58" s="38"/>
+      <c r="D58" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="H58" s="104">
+        <v>30</v>
+      </c>
+      <c r="I58" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="J56" s="43" t="s">
+      <c r="J58" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="K58" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="K56" s="43" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" spans="2:15">
-      <c r="B57" s="48"/>
-      <c r="D57" s="43" t="s">
+    </row>
+    <row r="59" spans="2:15">
+      <c r="B59" s="38"/>
+      <c r="J59" s="33"/>
+    </row>
+    <row r="60" spans="2:15">
+      <c r="B60" s="38"/>
+      <c r="D60" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E60" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H60" s="92">
+        <v>3.61</v>
+      </c>
+      <c r="I60" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="J60" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="K60" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15">
+      <c r="B61" s="38"/>
+      <c r="J61" s="33"/>
+    </row>
+    <row r="62" spans="2:15">
+      <c r="B62" s="38"/>
+      <c r="J62" s="33"/>
+      <c r="O62" s="39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15">
+      <c r="B63" s="38"/>
+      <c r="J63" s="33"/>
+      <c r="O63" s="39"/>
+    </row>
+    <row r="110" spans="15:15">
+      <c r="O110" s="39" t="s">
         <v>130</v>
-      </c>
-      <c r="E57" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="J57" s="43"/>
-    </row>
-    <row r="58" spans="2:15">
-      <c r="B58" s="48"/>
-      <c r="D58" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="H58" s="160">
-        <v>30</v>
-      </c>
-      <c r="I58" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="J58" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="K58" s="43" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="59" spans="2:15">
-      <c r="B59" s="48"/>
-      <c r="D59" s="146"/>
-      <c r="E59" s="146"/>
-      <c r="F59" s="146"/>
-      <c r="G59" s="146"/>
-      <c r="H59" s="146"/>
-      <c r="I59" s="146"/>
-      <c r="J59" s="146"/>
-    </row>
-    <row r="60" spans="2:15">
-      <c r="B60" s="48"/>
-      <c r="D60" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="E60" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="H60" s="148">
-        <v>3.61</v>
-      </c>
-      <c r="I60" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="J60" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="K60" s="43" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15">
-      <c r="B61" s="48"/>
-      <c r="J61" s="43"/>
-    </row>
-    <row r="62" spans="2:15">
-      <c r="B62" s="48"/>
-      <c r="J62" s="43"/>
-      <c r="O62" s="49" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="63" spans="2:15">
-      <c r="B63" s="48"/>
-      <c r="J63" s="43"/>
-      <c r="O63" s="49"/>
-    </row>
-    <row r="110" spans="15:15">
-      <c r="O110" s="49" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
